--- a/arquivos/Enviodasatividades.xlsx
+++ b/arquivos/Enviodasatividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\blog\Python\AutomacaoNotasPython\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019AA07F-4FB8-49F3-82ED-E79B7FC8E9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A72B88-4F35-4D54-BF03-2BC24FDA0F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4190" yWindow="2400" windowWidth="12000" windowHeight="5760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">Bruno Clapis </t>
   </si>
   <si>
-    <t xml:space="preserve">Bruno_clapis@hotmail.com </t>
-  </si>
-  <si>
     <t>Atividade 4</t>
   </si>
   <si>
@@ -68,6 +65,15 @@
   </si>
   <si>
     <t>Email.qualquer.com</t>
+  </si>
+  <si>
+    <t>Guilherme Luiz Maia Pinto</t>
+  </si>
+  <si>
+    <t>guilhermemaia2011@live.com</t>
+  </si>
+  <si>
+    <t>Bruno_clapis@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -95,15 +101,21 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -125,19 +137,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,11 +369,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -373,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -398,7 +413,7 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -418,14 +433,14 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -433,10 +448,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -446,7 +461,7 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -457,21 +472,76 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>20</v>
       </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>501</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>501</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>501</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>501</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{06E7BE42-4082-45A1-ABB6-F50739C9A7C2}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{A0CC8F18-F11C-4711-9586-BE4444B60D52}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{CB010F64-45CC-4119-9B24-13CAD9232BA0}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{27CF939D-159B-4361-BF58-11F21DB3019C}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{135A27D3-EBA5-45D1-8770-EB79BB7758A1}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{7A4F571E-8D34-4BE8-9EA8-1263CF91697B}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{F24B0727-0CAC-4A8C-BCFD-590C893BABB7}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{BECFF578-D868-4296-99E4-61290DB1DDB3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/arquivos/Enviodasatividades.xlsx
+++ b/arquivos/Enviodasatividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\blog\Python\AutomacaoNotasPython\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A72B88-4F35-4D54-BF03-2BC24FDA0F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C094A14-FDFA-469F-8EE5-9B35C88A8AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Bruno_clapis@hotmail.com</t>
+  </si>
+  <si>
+    <t>Email.qualquer2.com</t>
+  </si>
+  <si>
+    <t>Nome</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -478,7 +484,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
